--- a/datasets_info/fidelity_experiments/fidelity_yelp.xlsx
+++ b/datasets_info/fidelity_experiments/fidelity_yelp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mentos\Documents\Studia\Semestr 10\Magisterka\peter\PETER\datasets_info\fidelity_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460058C8-D22F-4B21-9408-A6117270F0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6AF844-99F9-4F12-9A0B-FB4D58929A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="420" windowWidth="24240" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>GT dobre</t>
   </si>
@@ -157,6 +157,9 @@
   <si>
     <t>Wyjaśnienie dobre [1,5]</t>
   </si>
+  <si>
+    <t>Podwójny rekomender</t>
+  </si>
 </sst>
 </file>
 
@@ -200,13 +203,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -487,11 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,13 +505,18 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" customWidth="1"/>
     <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -524,11 +535,25 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3925</v>
       </c>
@@ -553,10 +578,25 @@
       <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>3925</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4696</v>
+        <v>4693</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -573,10 +613,22 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>4693</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7148</v>
+        <v>7149</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -606,8 +658,30 @@
       <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>7149</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9078</v>
       </c>
@@ -639,12 +713,39 @@
       </c>
       <c r="L6" s="3">
         <f>COUNTIF($F$3:$F$102,I6)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>9078</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <f>COUNTIF($B$3:$B$102,T6)</f>
+        <v>15</v>
+      </c>
+      <c r="V6" s="3">
+        <f>COUNTIF($Q$3:$Q$102,T6)</f>
+        <v>20</v>
+      </c>
+      <c r="W6" s="3">
+        <f>COUNTIF($R$3:$R$102,T6)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11036</v>
+        <v>11035</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -666,7 +767,7 @@
       </c>
       <c r="J7" s="3">
         <f>COUNTIF($B$3:$B$102,I7)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="3">
         <f>COUNTIF($E$3:$E$102,I7)</f>
@@ -674,10 +775,37 @@
       </c>
       <c r="L7" s="3">
         <f>COUNTIF($F$3:$F$102,I7)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="O7">
+        <v>11035</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="T7" s="3">
+        <v>2</v>
+      </c>
+      <c r="U7" s="3">
+        <f>COUNTIF($B$3:$B$102,T7)</f>
+        <v>7</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" ref="V7:V10" si="0">COUNTIF($Q$3:$Q$102,T7)</f>
+        <v>11</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" ref="W7:W10" si="1">COUNTIF($R$3:$R$102,T7)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12562</v>
       </c>
@@ -701,7 +829,7 @@
       </c>
       <c r="J8" s="3">
         <f>COUNTIF($B$3:$B$102,I8)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K8" s="3">
         <f>COUNTIF($E$3:$E$102,I8)</f>
@@ -709,10 +837,37 @@
       </c>
       <c r="L8" s="3">
         <f>COUNTIF($F$3:$F$102,I8)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="O8">
+        <v>12562</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3">
+        <f>COUNTIF($B$3:$B$102,T8)</f>
+        <v>12</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14346</v>
       </c>
@@ -739,7 +894,7 @@
       </c>
       <c r="J9" s="3">
         <f>COUNTIF($B$3:$B$102,I9)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K9" s="3">
         <f>COUNTIF($E$3:$E$102,I9)</f>
@@ -747,10 +902,37 @@
       </c>
       <c r="L9" s="3">
         <f>COUNTIF($F$3:$F$102,I9)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>14346</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
+        <f>COUNTIF($B$3:$B$102,T9)</f>
+        <v>27</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34326</v>
       </c>
@@ -777,7 +959,7 @@
       </c>
       <c r="J10" s="3">
         <f>COUNTIF($B$3:$B$102,I10)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="3">
         <f>COUNTIF($E$3:$E$102,I10)</f>
@@ -785,10 +967,37 @@
       </c>
       <c r="L10" s="3">
         <f>COUNTIF($F$3:$F$102,I10)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>34326</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
+        <f>COUNTIF($B$3:$B$102,T10)</f>
+        <v>39</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>34981</v>
       </c>
@@ -810,10 +1019,22 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>34981</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>37276</v>
+        <v>37277</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -840,10 +1061,29 @@
       <c r="K12" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>37277</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>39920</v>
+        <v>39921</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -864,20 +1104,43 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13:K15" si="0">COUNTIF(C$3:C$102,$I13)</f>
+        <f t="shared" ref="J13:K15" si="2">COUNTIF(C$3:C$102,$I13)</f>
         <v>14</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="O13">
+        <v>39921</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <f>COUNTIF(C$3:C$102,$I13)</f>
+        <v>14</v>
+      </c>
+      <c r="V13" s="3">
+        <f>COUNTIF(P$3:P$102,$I13)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>44606</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -895,15 +1158,38 @@
         <v>0.5</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="O14">
+        <v>44606</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" ref="U14:U15" si="3">COUNTIF(C$3:C$102,$I14)</f>
+        <v>22</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" ref="V14:V15" si="4">COUNTIF(P$3:P$102,$I14)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44658</v>
       </c>
@@ -930,11 +1216,34 @@
         <v>64</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>44658</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>46009</v>
       </c>
@@ -953,8 +1262,20 @@
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>46009</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>48642</v>
       </c>
@@ -976,8 +1297,20 @@
       <c r="G17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>48642</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>69129</v>
       </c>
@@ -994,10 +1327,22 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>69129</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>82865</v>
       </c>
@@ -1014,15 +1359,27 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>82865</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>91174</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1034,13 +1391,25 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>91174</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>97331</v>
       </c>
@@ -1057,10 +1426,22 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>97331</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>114029</v>
       </c>
@@ -1082,8 +1463,20 @@
       <c r="G22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>114029</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>117077</v>
       </c>
@@ -1105,8 +1498,20 @@
       <c r="G23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>117077</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>119503</v>
       </c>
@@ -1125,8 +1530,20 @@
       <c r="F24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>119503</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>121053</v>
       </c>
@@ -1148,8 +1565,20 @@
       <c r="G25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>121053</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>124225</v>
       </c>
@@ -1171,10 +1600,22 @@
       <c r="G26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>124225</v>
+      </c>
+      <c r="P26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>124780</v>
+        <v>124777</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1191,8 +1632,20 @@
       <c r="F27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>124777</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125803</v>
       </c>
@@ -1211,8 +1664,20 @@
       <c r="F28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>125803</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>127114</v>
       </c>
@@ -1234,10 +1699,22 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>127114</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>128112</v>
+        <v>128113</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1252,13 +1729,25 @@
         <v>5</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>128113</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>133939</v>
       </c>
@@ -1277,8 +1766,20 @@
       <c r="F31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>133939</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>136942</v>
       </c>
@@ -1297,10 +1798,22 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>136942</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>149248</v>
+        <v>149245</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1320,8 +1833,20 @@
       <c r="G33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>149245</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>153041</v>
       </c>
@@ -1343,10 +1868,22 @@
       <c r="G34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>153041</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>155532</v>
+        <v>155530</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1363,8 +1900,20 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>155530</v>
+      </c>
+      <c r="P35">
+        <v>0.5</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>157689</v>
       </c>
@@ -1381,10 +1930,22 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>157689</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>158262</v>
       </c>
@@ -1403,10 +1964,22 @@
       <c r="F37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>158262</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>163900</v>
+        <v>163897</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -1421,12 +1994,24 @@
         <v>4</v>
       </c>
       <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>163897</v>
+      </c>
+      <c r="P38">
+        <v>0.5</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>178348</v>
+        <v>178349</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -1443,10 +2028,22 @@
       <c r="F39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>178349</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>181028</v>
+        <v>181025</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1461,10 +2058,22 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>181025</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>181745</v>
       </c>
@@ -1483,8 +2092,20 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>181745</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>184153</v>
       </c>
@@ -1506,8 +2127,20 @@
       <c r="G42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>184153</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>185062</v>
       </c>
@@ -1526,8 +2159,20 @@
       <c r="F43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>185062</v>
+      </c>
+      <c r="P43">
+        <v>0.5</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>188695</v>
       </c>
@@ -1544,13 +2189,25 @@
         <v>4</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>188695</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>189814</v>
       </c>
@@ -1567,18 +2224,30 @@
         <v>4</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>189814</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>199450</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1590,15 +2259,27 @@
         <v>4</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>199450</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>201368</v>
+        <v>201367</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1618,8 +2299,20 @@
       <c r="G47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>201367</v>
+      </c>
+      <c r="P47">
+        <v>0.5</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>204070</v>
       </c>
@@ -1636,12 +2329,24 @@
         <v>3</v>
       </c>
       <c r="F48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <v>204070</v>
+      </c>
+      <c r="P48">
+        <v>0.5</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>206340</v>
+        <v>206341</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -1656,10 +2361,22 @@
         <v>4</v>
       </c>
       <c r="F49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>206341</v>
+      </c>
+      <c r="P49">
+        <v>0.5</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>209345</v>
       </c>
@@ -1676,15 +2393,27 @@
         <v>5</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>209345</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>214220</v>
+        <v>214221</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -1701,13 +2430,25 @@
       <c r="F51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>214221</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>5</v>
+      </c>
+      <c r="R51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>218152</v>
+        <v>218153</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1724,10 +2465,22 @@
       <c r="G52" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>218153</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>220512</v>
+        <v>220513</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1747,13 +2500,25 @@
       <c r="G53" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>220513</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>224404</v>
+        <v>224401</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>0.5</v>
@@ -1765,15 +2530,27 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>224401</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>232220</v>
+        <v>232221</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -1793,10 +2570,22 @@
       <c r="G55" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>232221</v>
+      </c>
+      <c r="P55">
+        <v>0.5</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>245096</v>
+        <v>245097</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1816,8 +2605,20 @@
       <c r="G56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>245097</v>
+      </c>
+      <c r="P56">
+        <v>0.5</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>249433</v>
       </c>
@@ -1834,13 +2635,25 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>249433</v>
+      </c>
+      <c r="P57">
+        <v>0.5</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>250187</v>
       </c>
@@ -1857,13 +2670,25 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>250187</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>5</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>253623</v>
       </c>
@@ -1885,10 +2710,22 @@
       <c r="G59" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>253623</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>262356</v>
+        <v>262353</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1908,10 +2745,22 @@
       <c r="G60" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>262353</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>263264</v>
+        <v>263265</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -1926,10 +2775,22 @@
         <v>3</v>
       </c>
       <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>263265</v>
+      </c>
+      <c r="P61">
+        <v>0.5</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>272563</v>
       </c>
@@ -1951,8 +2812,20 @@
       <c r="G62" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>272563</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>5</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>277686</v>
       </c>
@@ -1969,18 +2842,30 @@
         <v>2</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>277686</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>284121</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>0.5</v>
@@ -1997,8 +2882,20 @@
       <c r="G64" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>284121</v>
+      </c>
+      <c r="P64">
+        <v>0.5</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>296174</v>
       </c>
@@ -2015,12 +2912,24 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>296174</v>
+      </c>
+      <c r="P65">
+        <v>0.5</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="R65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>296672</v>
+        <v>296669</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2040,8 +2949,20 @@
       <c r="G66" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>296669</v>
+      </c>
+      <c r="P66">
+        <v>0.5</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>296686</v>
       </c>
@@ -2060,8 +2981,20 @@
       <c r="F67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>296686</v>
+      </c>
+      <c r="P67">
+        <v>0.5</v>
+      </c>
+      <c r="Q67">
+        <v>3</v>
+      </c>
+      <c r="R67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>305259</v>
       </c>
@@ -2078,12 +3011,24 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O68">
+        <v>305259</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>305928</v>
+        <v>305929</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -2100,8 +3045,20 @@
       <c r="F69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>305929</v>
+      </c>
+      <c r="P69">
+        <v>0.5</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="R69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>314570</v>
       </c>
@@ -2120,10 +3077,22 @@
       <c r="F70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>314570</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>4</v>
+      </c>
+      <c r="R70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>335460</v>
+        <v>335459</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -2140,8 +3109,20 @@
       <c r="F71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <v>335459</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>339765</v>
       </c>
@@ -2163,8 +3144,20 @@
       <c r="G72" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>339765</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>5</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>343515</v>
       </c>
@@ -2183,10 +3176,22 @@
       <c r="F73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>343515</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>346352</v>
+        <v>346353</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -2203,10 +3208,22 @@
       <c r="F74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>346353</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>359644</v>
+        <v>359643</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -2223,8 +3240,20 @@
       <c r="F75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>359643</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>4</v>
+      </c>
+      <c r="R75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>366238</v>
       </c>
@@ -2243,8 +3272,20 @@
       <c r="F76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>366238</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>369143</v>
       </c>
@@ -2266,8 +3307,20 @@
       <c r="G77" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>369143</v>
+      </c>
+      <c r="P77">
+        <v>0.5</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>375611</v>
       </c>
@@ -2284,15 +3337,27 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>375611</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>5</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>375915</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2306,8 +3371,20 @@
       <c r="F79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>375915</v>
+      </c>
+      <c r="P79">
+        <v>0.5</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>379179</v>
       </c>
@@ -2324,13 +3401,25 @@
         <v>3</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G80" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>379179</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>380106</v>
       </c>
@@ -2349,8 +3438,20 @@
       <c r="F81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>380106</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>4</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>393315</v>
       </c>
@@ -2369,8 +3470,20 @@
       <c r="F82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>393315</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>398398</v>
       </c>
@@ -2392,8 +3505,20 @@
       <c r="G83" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>398398</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>402610</v>
       </c>
@@ -2412,8 +3537,20 @@
       <c r="F84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>402610</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>5</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>407854</v>
       </c>
@@ -2435,8 +3572,20 @@
       <c r="G85" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>407854</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>411783</v>
       </c>
@@ -2458,8 +3607,20 @@
       <c r="G86" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>411783</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>415862</v>
       </c>
@@ -2478,8 +3639,20 @@
       <c r="F87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>415862</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>3</v>
+      </c>
+      <c r="R87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>418957</v>
       </c>
@@ -2490,7 +3663,7 @@
         <v>0.5</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2501,8 +3674,20 @@
       <c r="G88" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>418957</v>
+      </c>
+      <c r="P88">
+        <v>0.5</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>422517</v>
       </c>
@@ -2519,12 +3704,24 @@
         <v>3</v>
       </c>
       <c r="F89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>422517</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>4</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>428836</v>
+        <v>428837</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -2539,13 +3736,25 @@
         <v>2</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G90" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>428837</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>431257</v>
       </c>
@@ -2564,8 +3773,20 @@
       <c r="F91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>431257</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>444805</v>
       </c>
@@ -2582,15 +3803,27 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O92">
+        <v>444805</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>447516</v>
+        <v>447517</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93">
         <v>0.5</v>
@@ -2602,13 +3835,25 @@
         <v>5</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G93" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>447517</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>4</v>
+      </c>
+      <c r="R93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>454359</v>
       </c>
@@ -2627,8 +3872,20 @@
       <c r="F94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>454359</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>456226</v>
       </c>
@@ -2650,13 +3907,25 @@
       <c r="G95" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>456226</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>457893</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2668,10 +3937,22 @@
         <v>3</v>
       </c>
       <c r="F96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="O96">
+        <v>457893</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>459962</v>
       </c>
@@ -2693,10 +3974,22 @@
       <c r="G97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>459962</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+      <c r="R97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>466396</v>
+        <v>466393</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -2716,10 +4009,22 @@
       <c r="G98" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <v>466393</v>
+      </c>
+      <c r="P98">
+        <v>0.5</v>
+      </c>
+      <c r="Q98">
+        <v>5</v>
+      </c>
+      <c r="R98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>466948</v>
+        <v>466945</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -2739,13 +4044,25 @@
       <c r="G99" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <v>466945</v>
+      </c>
+      <c r="P99">
+        <v>0.5</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>476899</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>0.5</v>
@@ -2762,10 +4079,22 @@
       <c r="G100" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>476899</v>
+      </c>
+      <c r="P100">
+        <v>0.5</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>501216</v>
+        <v>501217</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -2785,8 +4114,20 @@
       <c r="G101" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>501217</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>516165</v>
       </c>
@@ -2808,8 +4149,24 @@
       <c r="G102" t="s">
         <v>7</v>
       </c>
+      <c r="O102">
+        <v>516165</v>
+      </c>
+      <c r="P102">
+        <v>0.5</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:R1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datasets_info/fidelity_experiments/fidelity_yelp.xlsx
+++ b/datasets_info/fidelity_experiments/fidelity_yelp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mentos\Documents\Studia\Semestr 10\Magisterka\peter\PETER\datasets_info\fidelity_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460058C8-D22F-4B21-9408-A6117270F0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2F1949-7079-42E0-A66D-8BBF4959E5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="12735" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>GT dobre</t>
   </si>
@@ -157,6 +157,12 @@
   <si>
     <t>Wyjaśnienie dobre [1,5]</t>
   </si>
+  <si>
+    <t>Podwójny rekomender</t>
+  </si>
+  <si>
+    <t>Rating as input</t>
+  </si>
 </sst>
 </file>
 
@@ -200,13 +206,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -487,11 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,13 +508,23 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" customWidth="1"/>
     <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" customWidth="1"/>
+    <col min="28" max="28" width="26.42578125" customWidth="1"/>
+    <col min="29" max="29" width="21.85546875" customWidth="1"/>
+    <col min="33" max="33" width="21.7109375" customWidth="1"/>
+    <col min="34" max="34" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -524,11 +543,39 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="AA1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+    </row>
+    <row r="2" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3925</v>
       </c>
@@ -553,10 +600,40 @@
       <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>3925</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>3925</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4696</v>
+        <v>4693</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -573,10 +650,34 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>4693</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>4693</v>
+      </c>
+      <c r="AA4">
+        <v>0.5</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7148</v>
+        <v>7149</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -606,8 +707,52 @@
       <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>7149</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>7149</v>
+      </c>
+      <c r="AA5">
+        <v>0.5</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9078</v>
       </c>
@@ -639,12 +784,66 @@
       </c>
       <c r="L6" s="3">
         <f>COUNTIF($F$3:$F$102,I6)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>9078</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <f>COUNTIF($B$3:$B$102,T6)</f>
+        <v>15</v>
+      </c>
+      <c r="V6" s="3">
+        <f>COUNTIF($Q$3:$Q$102,T6)</f>
+        <v>20</v>
+      </c>
+      <c r="W6" s="3">
+        <f>COUNTIF($R$3:$R$102,T6)</f>
+        <v>15</v>
+      </c>
+      <c r="Z6">
+        <v>9078</v>
+      </c>
+      <c r="AA6">
+        <v>0.5</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3">
+        <f>COUNTIF($B3:$B$102,AE6)</f>
+        <v>15</v>
+      </c>
+      <c r="AG6" s="3">
+        <f>COUNTIF($AB$3:$AB$102,AE6)</f>
+        <v>12</v>
+      </c>
+      <c r="AH6" s="3">
+        <f>COUNTIF($AC$3:$AC$102,AE6)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11036</v>
+        <v>11035</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -666,7 +865,7 @@
       </c>
       <c r="J7" s="3">
         <f>COUNTIF($B$3:$B$102,I7)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="3">
         <f>COUNTIF($E$3:$E$102,I7)</f>
@@ -674,10 +873,64 @@
       </c>
       <c r="L7" s="3">
         <f>COUNTIF($F$3:$F$102,I7)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="O7">
+        <v>11035</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="T7" s="3">
+        <v>2</v>
+      </c>
+      <c r="U7" s="3">
+        <f>COUNTIF($B$3:$B$102,T7)</f>
+        <v>7</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" ref="V7:V10" si="0">COUNTIF($Q$3:$Q$102,T7)</f>
+        <v>11</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" ref="W7:W10" si="1">COUNTIF($R$3:$R$102,T7)</f>
+        <v>13</v>
+      </c>
+      <c r="Z7">
+        <v>11035</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="3">
+        <f>COUNTIF($B$3:$B$102,AE7)</f>
+        <v>7</v>
+      </c>
+      <c r="AG7" s="3">
+        <f t="shared" ref="AG7:AG10" si="2">COUNTIF($AB$3:$AB$102,AE7)</f>
+        <v>7</v>
+      </c>
+      <c r="AH7" s="3">
+        <f t="shared" ref="AH7:AH10" si="3">COUNTIF($AC$3:$AC$102,AE7)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12562</v>
       </c>
@@ -701,7 +954,7 @@
       </c>
       <c r="J8" s="3">
         <f>COUNTIF($B$3:$B$102,I8)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K8" s="3">
         <f>COUNTIF($E$3:$E$102,I8)</f>
@@ -709,10 +962,64 @@
       </c>
       <c r="L8" s="3">
         <f>COUNTIF($F$3:$F$102,I8)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="O8">
+        <v>12562</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3">
+        <f>COUNTIF($B$3:$B$102,T8)</f>
+        <v>12</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="Z8">
+        <v>12562</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>5</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="3">
+        <f>COUNTIF($B$3:$B$102,AE8)</f>
+        <v>12</v>
+      </c>
+      <c r="AG8" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AH8" s="3">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14346</v>
       </c>
@@ -739,7 +1046,7 @@
       </c>
       <c r="J9" s="3">
         <f>COUNTIF($B$3:$B$102,I9)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K9" s="3">
         <f>COUNTIF($E$3:$E$102,I9)</f>
@@ -747,10 +1054,64 @@
       </c>
       <c r="L9" s="3">
         <f>COUNTIF($F$3:$F$102,I9)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>14346</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
+        <f>COUNTIF($B$3:$B$102,T9)</f>
+        <v>27</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="Z9">
+        <v>14346</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>4</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="3">
+        <f>COUNTIF($B$3:$B$102,AE9)</f>
+        <v>27</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AH9" s="3">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34326</v>
       </c>
@@ -777,7 +1138,7 @@
       </c>
       <c r="J10" s="3">
         <f>COUNTIF($B$3:$B$102,I10)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="3">
         <f>COUNTIF($E$3:$E$102,I10)</f>
@@ -785,10 +1146,64 @@
       </c>
       <c r="L10" s="3">
         <f>COUNTIF($F$3:$F$102,I10)</f>
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>34326</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
+        <f>COUNTIF($B$3:$B$102,T10)</f>
+        <v>39</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="Z10">
+        <v>34326</v>
+      </c>
+      <c r="AA10">
+        <v>0.5</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="3">
+        <f>COUNTIF($B$3:$B$102,AE10)</f>
+        <v>39</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AH10" s="3">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>34981</v>
       </c>
@@ -810,10 +1225,34 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>34981</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>34981</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>37276</v>
+        <v>37277</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -840,10 +1279,48 @@
       <c r="K12" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>37277</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>37277</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>39920</v>
+        <v>39921</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -864,20 +1341,66 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13:K15" si="0">COUNTIF(C$3:C$102,$I13)</f>
+        <f t="shared" ref="J13:K15" si="4">COUNTIF(C$3:C$102,$I13)</f>
         <v>14</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="O13">
+        <v>39921</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <f>COUNTIF(C$3:C$102,$I13)</f>
+        <v>14</v>
+      </c>
+      <c r="V13" s="3">
+        <f>COUNTIF(P$3:P$102,$I13)</f>
+        <v>15</v>
+      </c>
+      <c r="Z13">
+        <v>39921</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <f>COUNTIF(N$3:N$102,$I13)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <f>COUNTIF(AA$3:AA$102,$I13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>44606</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -895,15 +1418,61 @@
         <v>0.5</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="O14">
+        <v>44606</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" ref="U14:U15" si="5">COUNTIF(C$3:C$102,$I14)</f>
+        <v>22</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" ref="V14:V15" si="6">COUNTIF(P$3:P$102,$I14)</f>
+        <v>37</v>
+      </c>
+      <c r="Z14">
+        <v>44606</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF14" s="3">
+        <f t="shared" ref="AF14:AF15" si="7">COUNTIF(N$3:N$102,$I14)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" ref="AG14:AG15" si="8">COUNTIF(AA$3:AA$102,$I14)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44658</v>
       </c>
@@ -930,11 +1499,57 @@
         <v>64</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>44658</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="Z15">
+        <v>44658</v>
+      </c>
+      <c r="AA15">
+        <v>0.5</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <f>COUNTIF(AA$3:AA$102,$I15)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>46009</v>
       </c>
@@ -953,8 +1568,32 @@
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>46009</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>46009</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>48642</v>
       </c>
@@ -976,8 +1615,32 @@
       <c r="G17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>48642</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>48642</v>
+      </c>
+      <c r="AA17">
+        <v>0.5</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>69129</v>
       </c>
@@ -994,10 +1657,34 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>69129</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <v>69129</v>
+      </c>
+      <c r="AA18">
+        <v>0.5</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>82865</v>
       </c>
@@ -1014,15 +1701,39 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>82865</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>82865</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>91174</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1034,13 +1745,37 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>91174</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="Z20">
+        <v>91174</v>
+      </c>
+      <c r="AA20">
+        <v>0.5</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>97331</v>
       </c>
@@ -1057,10 +1792,34 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>97331</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>97331</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>5</v>
+      </c>
+      <c r="AC21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>114029</v>
       </c>
@@ -1082,8 +1841,32 @@
       <c r="G22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>114029</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="Z22">
+        <v>114029</v>
+      </c>
+      <c r="AA22">
+        <v>0.5</v>
+      </c>
+      <c r="AB22">
+        <v>3</v>
+      </c>
+      <c r="AC22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>117077</v>
       </c>
@@ -1105,8 +1888,32 @@
       <c r="G23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>117077</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>117077</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>5</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>119503</v>
       </c>
@@ -1125,8 +1932,32 @@
       <c r="F24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>119503</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="Z24">
+        <v>119503</v>
+      </c>
+      <c r="AA24">
+        <v>0.5</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>121053</v>
       </c>
@@ -1148,8 +1979,32 @@
       <c r="G25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>121053</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <v>121053</v>
+      </c>
+      <c r="AA25">
+        <v>0.5</v>
+      </c>
+      <c r="AB25">
+        <v>4</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>124225</v>
       </c>
@@ -1171,10 +2026,34 @@
       <c r="G26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>124225</v>
+      </c>
+      <c r="P26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="Z26">
+        <v>124225</v>
+      </c>
+      <c r="AA26">
+        <v>0.5</v>
+      </c>
+      <c r="AB26">
+        <v>4</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>124780</v>
+        <v>124777</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1191,8 +2070,32 @@
       <c r="F27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>124777</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>124777</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125803</v>
       </c>
@@ -1211,8 +2114,32 @@
       <c r="F28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>125803</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>125803</v>
+      </c>
+      <c r="AA28">
+        <v>0.5</v>
+      </c>
+      <c r="AB28">
+        <v>5</v>
+      </c>
+      <c r="AC28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>127114</v>
       </c>
@@ -1234,10 +2161,34 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>127114</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>127114</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>4</v>
+      </c>
+      <c r="AC29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>128112</v>
+        <v>128113</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1252,13 +2203,37 @@
         <v>5</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>128113</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>128113</v>
+      </c>
+      <c r="AA30">
+        <v>0.5</v>
+      </c>
+      <c r="AB30">
+        <v>5</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>133939</v>
       </c>
@@ -1277,8 +2252,32 @@
       <c r="F31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>133939</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>133939</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>3</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>136942</v>
       </c>
@@ -1297,10 +2296,34 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>136942</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>136942</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>4</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>149248</v>
+        <v>149245</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1320,8 +2343,32 @@
       <c r="G33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>149245</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="Z33">
+        <v>149245</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>3</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>153041</v>
       </c>
@@ -1343,10 +2390,34 @@
       <c r="G34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>153041</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="Z34">
+        <v>153041</v>
+      </c>
+      <c r="AA34">
+        <v>0.5</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>155532</v>
+        <v>155530</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1363,8 +2434,32 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>155530</v>
+      </c>
+      <c r="P35">
+        <v>0.5</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>155530</v>
+      </c>
+      <c r="AA35">
+        <v>0.5</v>
+      </c>
+      <c r="AB35">
+        <v>4</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>157689</v>
       </c>
@@ -1381,10 +2476,34 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>157689</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="Z36">
+        <v>157689</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>158262</v>
       </c>
@@ -1403,10 +2522,34 @@
       <c r="F37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>158262</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>158262</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>163900</v>
+        <v>163897</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -1421,12 +2564,36 @@
         <v>4</v>
       </c>
       <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>163897</v>
+      </c>
+      <c r="P38">
+        <v>0.5</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="Z38">
+        <v>163897</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>4</v>
+      </c>
+      <c r="AC38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>178348</v>
+        <v>178349</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -1443,10 +2610,34 @@
       <c r="F39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>178349</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <v>178349</v>
+      </c>
+      <c r="AA39">
+        <v>0.5</v>
+      </c>
+      <c r="AB39">
+        <v>4</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>181028</v>
+        <v>181025</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1461,10 +2652,34 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>181025</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+      <c r="Z40">
+        <v>181025</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>181745</v>
       </c>
@@ -1483,8 +2698,32 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>181745</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>181745</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>5</v>
+      </c>
+      <c r="AC41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>184153</v>
       </c>
@@ -1506,8 +2745,32 @@
       <c r="G42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>184153</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <v>184153</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>4</v>
+      </c>
+      <c r="AC42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>185062</v>
       </c>
@@ -1526,8 +2789,32 @@
       <c r="F43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>185062</v>
+      </c>
+      <c r="P43">
+        <v>0.5</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>185062</v>
+      </c>
+      <c r="AA43">
+        <v>0.5</v>
+      </c>
+      <c r="AB43">
+        <v>4</v>
+      </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>188695</v>
       </c>
@@ -1544,13 +2831,37 @@
         <v>4</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>188695</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <v>188695</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>3</v>
+      </c>
+      <c r="AC44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>189814</v>
       </c>
@@ -1567,18 +2878,42 @@
         <v>4</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>189814</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="Z45">
+        <v>189814</v>
+      </c>
+      <c r="AA45">
+        <v>0.5</v>
+      </c>
+      <c r="AB45">
+        <v>4</v>
+      </c>
+      <c r="AC45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>199450</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1590,15 +2925,39 @@
         <v>4</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>199450</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="Z46">
+        <v>199450</v>
+      </c>
+      <c r="AA46">
+        <v>0.5</v>
+      </c>
+      <c r="AB46">
+        <v>5</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>201368</v>
+        <v>201367</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1618,8 +2977,32 @@
       <c r="G47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>201367</v>
+      </c>
+      <c r="P47">
+        <v>0.5</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>201367</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>204070</v>
       </c>
@@ -1636,12 +3019,36 @@
         <v>3</v>
       </c>
       <c r="F48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <v>204070</v>
+      </c>
+      <c r="P48">
+        <v>0.5</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="Z48">
+        <v>204070</v>
+      </c>
+      <c r="AA48">
+        <v>0.5</v>
+      </c>
+      <c r="AB48">
+        <v>3</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>206340</v>
+        <v>206341</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -1656,10 +3063,34 @@
         <v>4</v>
       </c>
       <c r="F49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>206341</v>
+      </c>
+      <c r="P49">
+        <v>0.5</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <v>206341</v>
+      </c>
+      <c r="AA49">
+        <v>0.5</v>
+      </c>
+      <c r="AB49">
+        <v>5</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>209345</v>
       </c>
@@ -1676,15 +3107,39 @@
         <v>5</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>209345</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="Z50">
+        <v>209345</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>5</v>
+      </c>
+      <c r="AC50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>214220</v>
+        <v>214221</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -1701,13 +3156,37 @@
       <c r="F51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>214221</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>5</v>
+      </c>
+      <c r="R51">
+        <v>5</v>
+      </c>
+      <c r="Z51">
+        <v>214221</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>4</v>
+      </c>
+      <c r="AC51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>218152</v>
+        <v>218153</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1724,10 +3203,34 @@
       <c r="G52" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>218153</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <v>218153</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>5</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>220512</v>
+        <v>220513</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1747,13 +3250,37 @@
       <c r="G53" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>220513</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="Z53">
+        <v>220513</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AC53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>224404</v>
+        <v>224401</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>0.5</v>
@@ -1765,15 +3292,39 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>224401</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="Z54">
+        <v>224401</v>
+      </c>
+      <c r="AA54">
+        <v>0.5</v>
+      </c>
+      <c r="AB54">
+        <v>3</v>
+      </c>
+      <c r="AC54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>232220</v>
+        <v>232221</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -1793,10 +3344,34 @@
       <c r="G55" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>232221</v>
+      </c>
+      <c r="P55">
+        <v>0.5</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>232221</v>
+      </c>
+      <c r="AA55">
+        <v>0.5</v>
+      </c>
+      <c r="AB55">
+        <v>5</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>245096</v>
+        <v>245097</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1816,8 +3391,32 @@
       <c r="G56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>245097</v>
+      </c>
+      <c r="P56">
+        <v>0.5</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>245097</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+      <c r="AC56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>249433</v>
       </c>
@@ -1834,13 +3433,37 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>249433</v>
+      </c>
+      <c r="P57">
+        <v>0.5</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>3</v>
+      </c>
+      <c r="Z57">
+        <v>249433</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>250187</v>
       </c>
@@ -1857,13 +3480,37 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>250187</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>5</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+      <c r="Z58">
+        <v>250187</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>5</v>
+      </c>
+      <c r="AC58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>253623</v>
       </c>
@@ -1885,10 +3532,34 @@
       <c r="G59" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>253623</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
+      <c r="Z59">
+        <v>253623</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AC59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>262356</v>
+        <v>262353</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1908,10 +3579,34 @@
       <c r="G60" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>262353</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+      <c r="Z60">
+        <v>262353</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>5</v>
+      </c>
+      <c r="AC60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>263264</v>
+        <v>263265</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -1926,10 +3621,34 @@
         <v>3</v>
       </c>
       <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>263265</v>
+      </c>
+      <c r="P61">
+        <v>0.5</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="Z61">
+        <v>263265</v>
+      </c>
+      <c r="AA61">
+        <v>0.5</v>
+      </c>
+      <c r="AB61">
+        <v>4</v>
+      </c>
+      <c r="AC61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>272563</v>
       </c>
@@ -1951,8 +3670,32 @@
       <c r="G62" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>272563</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>5</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="Z62">
+        <v>272563</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
+        <v>5</v>
+      </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>277686</v>
       </c>
@@ -1969,18 +3712,42 @@
         <v>2</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>277686</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <v>5</v>
+      </c>
+      <c r="Z63">
+        <v>277686</v>
+      </c>
+      <c r="AA63">
+        <v>0.5</v>
+      </c>
+      <c r="AB63">
+        <v>2</v>
+      </c>
+      <c r="AC63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>284121</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>0.5</v>
@@ -1997,8 +3764,32 @@
       <c r="G64" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>284121</v>
+      </c>
+      <c r="P64">
+        <v>0.5</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>284121</v>
+      </c>
+      <c r="AA64">
+        <v>0.5</v>
+      </c>
+      <c r="AB64">
+        <v>3</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>296174</v>
       </c>
@@ -2015,12 +3806,36 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>296174</v>
+      </c>
+      <c r="P65">
+        <v>0.5</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="R65">
+        <v>4</v>
+      </c>
+      <c r="Z65">
+        <v>296174</v>
+      </c>
+      <c r="AA65">
+        <v>0.5</v>
+      </c>
+      <c r="AB65">
+        <v>2</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>296672</v>
+        <v>296669</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2040,8 +3855,32 @@
       <c r="G66" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>296669</v>
+      </c>
+      <c r="P66">
+        <v>0.5</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>296669</v>
+      </c>
+      <c r="AA66">
+        <v>0.5</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>296686</v>
       </c>
@@ -2060,8 +3899,32 @@
       <c r="F67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>296686</v>
+      </c>
+      <c r="P67">
+        <v>0.5</v>
+      </c>
+      <c r="Q67">
+        <v>3</v>
+      </c>
+      <c r="R67">
+        <v>3</v>
+      </c>
+      <c r="Z67">
+        <v>296686</v>
+      </c>
+      <c r="AA67">
+        <v>0.5</v>
+      </c>
+      <c r="AB67">
+        <v>3</v>
+      </c>
+      <c r="AC67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>305259</v>
       </c>
@@ -2078,12 +3941,36 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O68">
+        <v>305259</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68">
+        <v>3</v>
+      </c>
+      <c r="Z68">
+        <v>305259</v>
+      </c>
+      <c r="AA68">
+        <v>0.5</v>
+      </c>
+      <c r="AB68">
+        <v>5</v>
+      </c>
+      <c r="AC68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>305928</v>
+        <v>305929</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -2100,8 +3987,32 @@
       <c r="F69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>305929</v>
+      </c>
+      <c r="P69">
+        <v>0.5</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="R69">
+        <v>3</v>
+      </c>
+      <c r="Z69">
+        <v>305929</v>
+      </c>
+      <c r="AA69">
+        <v>0.5</v>
+      </c>
+      <c r="AB69">
+        <v>4</v>
+      </c>
+      <c r="AC69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>314570</v>
       </c>
@@ -2120,10 +4031,34 @@
       <c r="F70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>314570</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>4</v>
+      </c>
+      <c r="R70">
+        <v>4</v>
+      </c>
+      <c r="Z70">
+        <v>314570</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>3</v>
+      </c>
+      <c r="AC70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>335460</v>
+        <v>335459</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -2140,8 +4075,32 @@
       <c r="F71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <v>335459</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="Z71">
+        <v>335459</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>4</v>
+      </c>
+      <c r="AC71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>339765</v>
       </c>
@@ -2163,8 +4122,32 @@
       <c r="G72" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>339765</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>5</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="Z72">
+        <v>339765</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>5</v>
+      </c>
+      <c r="AC72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>343515</v>
       </c>
@@ -2183,10 +4166,25 @@
       <c r="F73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>343515</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="Z73">
+        <v>343515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>346352</v>
+        <v>346353</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -2203,10 +4201,25 @@
       <c r="F74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>346353</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="Z74">
+        <v>346353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>359644</v>
+        <v>359643</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -2223,8 +4236,23 @@
       <c r="F75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>359643</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>4</v>
+      </c>
+      <c r="R75">
+        <v>5</v>
+      </c>
+      <c r="Z75">
+        <v>359643</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>366238</v>
       </c>
@@ -2243,8 +4271,23 @@
       <c r="F76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>366238</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="Z76">
+        <v>366238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>369143</v>
       </c>
@@ -2266,8 +4309,23 @@
       <c r="G77" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>369143</v>
+      </c>
+      <c r="P77">
+        <v>0.5</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>369143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>375611</v>
       </c>
@@ -2284,15 +4342,30 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>375611</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>5</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="Z78">
+        <v>375611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>375915</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2306,8 +4379,23 @@
       <c r="F79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>375915</v>
+      </c>
+      <c r="P79">
+        <v>0.5</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="Z79">
+        <v>375915</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>379179</v>
       </c>
@@ -2324,13 +4412,28 @@
         <v>3</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G80" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>379179</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>3</v>
+      </c>
+      <c r="Z80">
+        <v>379179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>380106</v>
       </c>
@@ -2349,8 +4452,23 @@
       <c r="F81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>380106</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>4</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
+      </c>
+      <c r="Z81">
+        <v>380106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>393315</v>
       </c>
@@ -2369,8 +4487,23 @@
       <c r="F82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>393315</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>4</v>
+      </c>
+      <c r="Z82">
+        <v>393315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>398398</v>
       </c>
@@ -2392,8 +4525,23 @@
       <c r="G83" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>398398</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <v>398398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>402610</v>
       </c>
@@ -2412,8 +4560,23 @@
       <c r="F84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>402610</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>5</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="Z84">
+        <v>402610</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>407854</v>
       </c>
@@ -2435,8 +4598,23 @@
       <c r="G85" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>407854</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>5</v>
+      </c>
+      <c r="Z85">
+        <v>407854</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>411783</v>
       </c>
@@ -2458,8 +4636,23 @@
       <c r="G86" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>411783</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <v>3</v>
+      </c>
+      <c r="Z86">
+        <v>411783</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>415862</v>
       </c>
@@ -2478,8 +4671,23 @@
       <c r="F87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>415862</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>3</v>
+      </c>
+      <c r="R87">
+        <v>5</v>
+      </c>
+      <c r="Z87">
+        <v>415862</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>418957</v>
       </c>
@@ -2490,7 +4698,7 @@
         <v>0.5</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2501,8 +4709,23 @@
       <c r="G88" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>418957</v>
+      </c>
+      <c r="P88">
+        <v>0.5</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>3</v>
+      </c>
+      <c r="Z88">
+        <v>418957</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>422517</v>
       </c>
@@ -2519,12 +4742,27 @@
         <v>3</v>
       </c>
       <c r="F89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>422517</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>4</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+      <c r="Z89">
+        <v>422517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>428836</v>
+        <v>428837</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -2539,13 +4777,28 @@
         <v>2</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G90" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>428837</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>4</v>
+      </c>
+      <c r="Z90">
+        <v>428837</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>431257</v>
       </c>
@@ -2564,8 +4817,23 @@
       <c r="F91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>431257</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>5</v>
+      </c>
+      <c r="Z91">
+        <v>431257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>444805</v>
       </c>
@@ -2582,15 +4850,30 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O92">
+        <v>444805</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>4</v>
+      </c>
+      <c r="Z92">
+        <v>444805</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>447516</v>
+        <v>447517</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93">
         <v>0.5</v>
@@ -2602,13 +4885,28 @@
         <v>5</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G93" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>447517</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>4</v>
+      </c>
+      <c r="R93">
+        <v>4</v>
+      </c>
+      <c r="Z93">
+        <v>447517</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>454359</v>
       </c>
@@ -2627,8 +4925,23 @@
       <c r="F94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>454359</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>4</v>
+      </c>
+      <c r="Z94">
+        <v>454359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>456226</v>
       </c>
@@ -2650,13 +4963,28 @@
       <c r="G95" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>456226</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <v>4</v>
+      </c>
+      <c r="Z95">
+        <v>456226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>457893</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2668,10 +4996,25 @@
         <v>3</v>
       </c>
       <c r="F96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="O96">
+        <v>457893</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="Z96">
+        <v>457893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>459962</v>
       </c>
@@ -2693,10 +5036,25 @@
       <c r="G97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>459962</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+      <c r="R97">
+        <v>4</v>
+      </c>
+      <c r="Z97">
+        <v>459962</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>466396</v>
+        <v>466393</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -2716,10 +5074,25 @@
       <c r="G98" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <v>466393</v>
+      </c>
+      <c r="P98">
+        <v>0.5</v>
+      </c>
+      <c r="Q98">
+        <v>5</v>
+      </c>
+      <c r="R98">
+        <v>5</v>
+      </c>
+      <c r="Z98">
+        <v>466393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>466948</v>
+        <v>466945</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -2739,13 +5112,28 @@
       <c r="G99" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <v>466945</v>
+      </c>
+      <c r="P99">
+        <v>0.5</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <v>466945</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>476899</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>0.5</v>
@@ -2762,10 +5150,25 @@
       <c r="G100" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>476899</v>
+      </c>
+      <c r="P100">
+        <v>0.5</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <v>476899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>501216</v>
+        <v>501217</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -2785,8 +5188,23 @@
       <c r="G101" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>501217</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+      <c r="Z101">
+        <v>501217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>516165</v>
       </c>
@@ -2808,8 +5226,28 @@
       <c r="G102" t="s">
         <v>7</v>
       </c>
+      <c r="O102">
+        <v>516165</v>
+      </c>
+      <c r="P102">
+        <v>0.5</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="Z102">
+        <v>516165</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="AA1:AC1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datasets_info/fidelity_experiments/fidelity_yelp.xlsx
+++ b/datasets_info/fidelity_experiments/fidelity_yelp.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mentos\Documents\Studia\Semestr 10\Magisterka\peter\PETER\datasets_info\fidelity_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6AF844-99F9-4F12-9A0B-FB4D58929A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FBE844-B178-49D4-AEBD-0A0662AAD52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="420" windowWidth="24240" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13515" yWindow="1380" windowWidth="12735" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="2nd_eval" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>GT dobre</t>
   </si>
@@ -160,6 +161,27 @@
   <si>
     <t>Podwójny rekomender</t>
   </si>
+  <si>
+    <t>Yelp</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>1st eval</t>
+  </si>
+  <si>
+    <t>Korelacja:</t>
+  </si>
+  <si>
+    <t>Ręczna predykcja oceny</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Korelacja</t>
+  </si>
 </sst>
 </file>
 
@@ -203,13 +225,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,9 +520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,11 +560,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="2"/>
@@ -4169,4 +4194,2190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E47D7DA-951D-4AA0-9523-6B12D149129F}">
+  <dimension ref="B1:R102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3925</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <f>ABS(M3-N3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>SUM(Q3:Q102)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4693</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q67" si="0">ABS(M4-N4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7149</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>9078</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>11035</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>12562</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>14346</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>34326</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f>PEARSON(M3:M102,N3:N102)</f>
+        <v>0.54989410181768772</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>34981</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>37277</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>39921</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>44606</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>44658</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>46009</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>48642</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>69129</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>82865</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>91174</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>97331</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>114029</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>117077</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>119503</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>121053</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>124225</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>124777</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>125803</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>127114</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>128113</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>133939</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>136942</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>149245</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>153041</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>155530</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>157689</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>158262</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>163897</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>178349</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>181025</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>181745</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>184153</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>185062</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>188695</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>189814</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>199450</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>201367</v>
+      </c>
+      <c r="C47">
+        <v>0.5</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>204070</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>206341</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>209345</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>214221</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>218153</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>220513</v>
+      </c>
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>224401</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>232221</v>
+      </c>
+      <c r="C55">
+        <v>0.5</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>245097</v>
+      </c>
+      <c r="C56">
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>249433</v>
+      </c>
+      <c r="C57">
+        <v>0.5</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>250187</v>
+      </c>
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>253623</v>
+      </c>
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>262353</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>263265</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>272563</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>277686</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>284121</v>
+      </c>
+      <c r="C64">
+        <v>0.5</v>
+      </c>
+      <c r="E64">
+        <v>0.5</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>296174</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>296669</v>
+      </c>
+      <c r="C66">
+        <v>0.5</v>
+      </c>
+      <c r="E66">
+        <v>0.5</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>296686</v>
+      </c>
+      <c r="C67">
+        <v>0.5</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>305259</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:Q101" si="1">ABS(M68-N68)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>305929</v>
+      </c>
+      <c r="C69">
+        <v>0.5</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>314570</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>5</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>335459</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>339765</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>343515</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>346353</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>359643</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>366238</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>369143</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>375611</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>375915</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>379179</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>380106</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>43</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>393315</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f>COUNTIF(C$3:C$102,G82)</f>
+        <v>9</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>398398</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0.5</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ref="H83:H84" si="2">COUNTIF(C$3:C$102,G83)</f>
+        <v>36</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>402610</v>
+      </c>
+      <c r="C84">
+        <v>0.5</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>407854</v>
+      </c>
+      <c r="C85">
+        <v>0.5</v>
+      </c>
+      <c r="E85">
+        <v>0.5</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>411783</v>
+      </c>
+      <c r="C86">
+        <v>0.5</v>
+      </c>
+      <c r="E86">
+        <v>0.5</v>
+      </c>
+      <c r="H86" t="s">
+        <v>45</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>415862</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <f>PEARSON(C3:C102,E3:E102)</f>
+        <v>0.77649570555671621</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>418957</v>
+      </c>
+      <c r="C88">
+        <v>0.5</v>
+      </c>
+      <c r="E88">
+        <v>0.5</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>422517</v>
+      </c>
+      <c r="C89">
+        <v>0.5</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>428837</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>5</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>431257</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>444805</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>447517</v>
+      </c>
+      <c r="C93">
+        <v>0.5</v>
+      </c>
+      <c r="E93">
+        <v>0.5</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>454359</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>456226</v>
+      </c>
+      <c r="C95">
+        <v>0.5</v>
+      </c>
+      <c r="E95">
+        <v>0.5</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>457893</v>
+      </c>
+      <c r="C96">
+        <v>0.5</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>459962</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>466393</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>5</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>466945</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>476899</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0.5</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>501217</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>516165</v>
+      </c>
+      <c r="C102">
+        <v>0.5</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="Q102">
+        <f>ABS(M102-N102)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datasets_info/fidelity_experiments/fidelity_yelp.xlsx
+++ b/datasets_info/fidelity_experiments/fidelity_yelp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mentos\Documents\Studia\Semestr 10\Magisterka\peter\PETER\datasets_info\fidelity_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FBE844-B178-49D4-AEBD-0A0662AAD52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300B12A-D2CA-4449-9D00-32CD5CB5E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13515" yWindow="1380" windowWidth="12735" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12555" yWindow="930" windowWidth="15615" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>GT dobre</t>
   </si>
@@ -182,6 +182,15 @@
   <si>
     <t>Korelacja</t>
   </si>
+  <si>
+    <t>GT spójne (0/1)</t>
+  </si>
+  <si>
+    <t>Predykcje spójne (0/1)</t>
+  </si>
+  <si>
+    <t>Rating as input</t>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -238,6 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -518,30 +528,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W102"/>
+  <dimension ref="A1:AK102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C102"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y102" sqref="Y102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" customWidth="1"/>
-    <col min="17" max="17" width="27.140625" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="18" max="19" width="21.42578125" customWidth="1"/>
+    <col min="20" max="20" width="27.140625" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" customWidth="1"/>
+    <col min="30" max="30" width="22.42578125" customWidth="1"/>
+    <col min="31" max="31" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="22.140625" customWidth="1"/>
+    <col min="36" max="36" width="22" customWidth="1"/>
+    <col min="37" max="37" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -549,36 +564,60 @@
         <v>37</v>
       </c>
       <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="2"/>
-      <c r="P2" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="AD1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+    </row>
+    <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
+      <c r="R2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3925</v>
       </c>
@@ -592,34 +631,58 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>3925</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
-      </c>
       <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="V3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC3">
+        <v>3925</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4693</v>
       </c>
@@ -630,28 +693,49 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>4693</v>
       </c>
-      <c r="P4">
-        <v>0.5</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
       <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>4693</v>
+      </c>
+      <c r="AD4">
+        <v>0.5</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7149</v>
       </c>
@@ -662,51 +746,82 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5">
         <v>7149</v>
       </c>
-      <c r="P5">
-        <v>0.5</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
       <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>7149</v>
+      </c>
+      <c r="AD5">
+        <v>0.5</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9078</v>
       </c>
@@ -717,58 +832,94 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <f>COUNTIF($B$3:$B$102,I6)</f>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <f>COUNTIF($B$3:$B$102,K6)</f>
         <v>15</v>
       </c>
-      <c r="K6" s="3">
-        <f>COUNTIF($E$3:$E$102,I6)</f>
+      <c r="M6" s="3">
+        <f>COUNTIF($G$3:$G$102,K6)</f>
         <v>20</v>
       </c>
-      <c r="L6" s="3">
-        <f>COUNTIF($F$3:$F$102,I6)</f>
+      <c r="N6" s="3">
+        <f>COUNTIF($H$3:$H$102,K6)</f>
         <v>17</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>9078</v>
       </c>
-      <c r="P6">
-        <v>0.5</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
       <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3">
-        <f>COUNTIF($B$3:$B$102,T6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <f>COUNTIF($B$3:$B$102,W6)</f>
         <v>15</v>
       </c>
-      <c r="V6" s="3">
-        <f>COUNTIF($Q$3:$Q$102,T6)</f>
+      <c r="Y6" s="3">
+        <f>COUNTIF($T$3:$T$102,W6)</f>
         <v>20</v>
       </c>
-      <c r="W6" s="3">
-        <f>COUNTIF($R$3:$R$102,T6)</f>
+      <c r="Z6" s="3">
+        <f>COUNTIF($U$3:$U$102,W6)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <v>9078</v>
+      </c>
+      <c r="AD6">
+        <v>0.5</v>
+      </c>
+      <c r="AE6">
+        <v>3</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3">
+        <f>COUNTIF($B3:$B$102,AH6)</f>
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f>COUNTIF($AE$3:$AE$102,AH6)</f>
+        <v>22</v>
+      </c>
+      <c r="AK6" s="3">
+        <f>COUNTIF($AF$3:$AF$102,AH6)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11035</v>
       </c>
@@ -782,55 +933,91 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
-        <f>COUNTIF($B$3:$B$102,I7)</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <f>COUNTIF($B$3:$B$102,K7)</f>
         <v>7</v>
       </c>
-      <c r="K7" s="3">
-        <f>COUNTIF($E$3:$E$102,I7)</f>
+      <c r="M7" s="3">
+        <f>COUNTIF($G$3:$G$102,K7)</f>
         <v>9</v>
       </c>
-      <c r="L7" s="3">
-        <f>COUNTIF($F$3:$F$102,I7)</f>
+      <c r="N7" s="3">
+        <f>COUNTIF($H$3:$H$102,K7)</f>
         <v>23</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>11035</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
       <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="T7" s="3">
-        <v>2</v>
-      </c>
-      <c r="U7" s="3">
-        <f>COUNTIF($B$3:$B$102,T7)</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="W7" s="3">
+        <v>2</v>
+      </c>
+      <c r="X7" s="3">
+        <f>COUNTIF($B$3:$B$102,W7)</f>
         <v>7</v>
       </c>
-      <c r="V7" s="3">
-        <f t="shared" ref="V7:V10" si="0">COUNTIF($Q$3:$Q$102,T7)</f>
+      <c r="Y7" s="3">
+        <f>COUNTIF($T$3:$T$102,W7)</f>
         <v>11</v>
       </c>
-      <c r="W7" s="3">
-        <f t="shared" ref="W7:W10" si="1">COUNTIF($R$3:$R$102,T7)</f>
+      <c r="Z7" s="3">
+        <f t="shared" ref="Z7:Z10" si="0">COUNTIF($U$3:$U$102,W7)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC7">
+        <v>11035</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>4</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="3">
+        <f>COUNTIF($B$3:$B$102,AH7)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" ref="AJ7:AJ10" si="1">COUNTIF($AE$3:$AE$102,AH7)</f>
+        <v>9</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" ref="AK7:AK10" si="2">COUNTIF($AF$3:$AF$102,AH7)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12562</v>
       </c>
@@ -844,120 +1031,192 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <f>COUNTIF($B$3:$B$102,I8)</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <f>COUNTIF($B$3:$B$102,K8)</f>
         <v>12</v>
       </c>
-      <c r="K8" s="3">
-        <f>COUNTIF($E$3:$E$102,I8)</f>
+      <c r="M8" s="3">
+        <f>COUNTIF($G$3:$G$102,K8)</f>
         <v>24</v>
       </c>
-      <c r="L8" s="3">
-        <f>COUNTIF($F$3:$F$102,I8)</f>
+      <c r="N8" s="3">
+        <f>COUNTIF($H$3:$H$102,K8)</f>
         <v>25</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>12562</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
       <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3</v>
-      </c>
-      <c r="U8" s="3">
-        <f>COUNTIF($B$3:$B$102,T8)</f>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
+        <v>3</v>
+      </c>
+      <c r="X8" s="3">
+        <f>COUNTIF($B$3:$B$102,W8)</f>
         <v>12</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
+        <f>COUNTIF($T$3:$T$102,W8)</f>
+        <v>21</v>
+      </c>
+      <c r="Z8" s="3">
         <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC8">
+        <v>12562</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>5</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="3">
+        <f>COUNTIF($B$3:$B$102,AH8)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="W8" s="3">
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>14346</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <f>COUNTIF($B$3:$B$102,K9)</f>
+        <v>27</v>
+      </c>
+      <c r="M9" s="3">
+        <f>COUNTIF($G$3:$G$102,K9)</f>
+        <v>22</v>
+      </c>
+      <c r="N9" s="3">
+        <f>COUNTIF($H$3:$H$102,K9)</f>
+        <v>20</v>
+      </c>
+      <c r="Q9">
+        <v>14346</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
+        <f>COUNTIF($B$3:$B$102,W9)</f>
+        <v>27</v>
+      </c>
+      <c r="Y9" s="3">
+        <f>COUNTIF($T$3:$T$102,W9)</f>
+        <v>23</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AC9">
+        <v>14346</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="3">
+        <f>COUNTIF($B$3:$B$102,AH9)</f>
+        <v>27</v>
+      </c>
+      <c r="AJ9" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>14346</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <f>COUNTIF($B$3:$B$102,I9)</f>
-        <v>27</v>
-      </c>
-      <c r="K9" s="3">
-        <f>COUNTIF($E$3:$E$102,I9)</f>
+      <c r="AK9" s="3">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="L9" s="3">
-        <f>COUNTIF($F$3:$F$102,I9)</f>
-        <v>20</v>
-      </c>
-      <c r="O9">
-        <v>14346</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-      <c r="R9">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3">
-        <f>COUNTIF($B$3:$B$102,T9)</f>
-        <v>27</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="W9" s="3">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34326</v>
       </c>
@@ -968,61 +1227,97 @@
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="3">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
-        <f>COUNTIF($B$3:$B$102,I10)</f>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <f>COUNTIF($B$3:$B$102,K10)</f>
         <v>39</v>
       </c>
-      <c r="K10" s="3">
-        <f>COUNTIF($E$3:$E$102,I10)</f>
+      <c r="M10" s="3">
+        <f>COUNTIF($G$3:$G$102,K10)</f>
         <v>25</v>
       </c>
-      <c r="L10" s="3">
-        <f>COUNTIF($F$3:$F$102,I10)</f>
+      <c r="N10" s="3">
+        <f>COUNTIF($H$3:$H$102,K10)</f>
         <v>15</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>34326</v>
       </c>
-      <c r="P10">
-        <v>0.5</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
       <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="T10" s="3">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
-        <f>COUNTIF($B$3:$B$102,T10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="W10" s="3">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
+        <f>COUNTIF($B$3:$B$102,W10)</f>
         <v>39</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
+        <f>COUNTIF($T$3:$T$102,W10)</f>
+        <v>25</v>
+      </c>
+      <c r="Z10" s="3">
         <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AC10">
+        <v>34326</v>
+      </c>
+      <c r="AD10">
+        <v>0.5</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="3">
+        <f>COUNTIF($B$3:$B$102,AH10)</f>
+        <v>39</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="W10" s="3">
-        <f t="shared" si="1"/>
+      <c r="AK10" s="3">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>34981</v>
       </c>
@@ -1033,31 +1328,52 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>34981</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
       <c r="R11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>34981</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AF11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37277</v>
       </c>
@@ -1071,42 +1387,70 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12">
         <v>37277</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
       <c r="R12">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>37277</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
+      </c>
+      <c r="AF12">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>39921</v>
       </c>
@@ -1120,47 +1464,79 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" ref="J13:K15" si="2">COUNTIF(C$3:C$102,$I13)</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f>COUNTIF(C$3:C$102,$K13)</f>
         <v>14</v>
       </c>
-      <c r="K13" s="3">
-        <f t="shared" si="2"/>
+      <c r="M13" s="3">
+        <f>COUNTIF(E$3:E$102,$K13)</f>
         <v>21</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>39921</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
       <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <f>COUNTIF(C$3:C$102,$I13)</f>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <f>COUNTIF(C$3:C$102,$K13)</f>
         <v>14</v>
       </c>
-      <c r="V13" s="3">
-        <f>COUNTIF(P$3:P$102,$I13)</f>
+      <c r="Y13" s="3">
+        <f>COUNTIF(R$3:R$102,$K13)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC13">
+        <v>39921</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3">
+        <f>COUNTIF(C$3:C$102,$AH13)</f>
+        <v>14</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f>COUNTIF(AD$3:AD$102,$AH13)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>44606</v>
       </c>
@@ -1171,50 +1547,82 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="3">
+        <f>COUNTIF(C$3:C$102,$K14)</f>
         <v>22</v>
       </c>
-      <c r="K14" s="3">
-        <f t="shared" si="2"/>
+      <c r="M14" s="3">
+        <f>COUNTIF(E$3:E$102,$K14)</f>
         <v>35</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>44606</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
-      </c>
       <c r="R14">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U14" s="3">
-        <f t="shared" ref="U14:U15" si="3">COUNTIF(C$3:C$102,$I14)</f>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X14" s="3">
+        <f t="shared" ref="X14:X15" si="3">COUNTIF(C$3:C$102,$K14)</f>
         <v>22</v>
       </c>
-      <c r="V14" s="3">
-        <f t="shared" ref="V14:V15" si="4">COUNTIF(P$3:P$102,$I14)</f>
+      <c r="Y14" s="3">
+        <f t="shared" ref="Y14:Y15" si="4">COUNTIF(R$3:R$102,$K14)</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC14">
+        <v>44606</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>5</v>
+      </c>
+      <c r="AF14">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AI14" s="3">
+        <f t="shared" ref="AI14:AI15" si="5">COUNTIF(C$3:C$102,$AH14)</f>
+        <v>22</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" ref="AJ14:AJ15" si="6">COUNTIF(AD$3:AD$102,$AH14)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44658</v>
       </c>
@@ -1228,47 +1636,79 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <f>COUNTIF(C$3:C$102,$I15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <f>COUNTIF(C$3:C$102,$K15)</f>
         <v>64</v>
       </c>
-      <c r="K15" s="3">
-        <f t="shared" si="2"/>
+      <c r="M15" s="3">
+        <f>COUNTIF(E$3:E$102,$K15)</f>
         <v>44</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>44658</v>
       </c>
-      <c r="P15">
-        <v>0.5</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
       <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1</v>
-      </c>
-      <c r="U15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
+      <c r="X15" s="3">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="V15" s="3">
+      <c r="Y15" s="3">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AC15">
+        <v>44658</v>
+      </c>
+      <c r="AD15">
+        <v>0.5</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="3">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>46009</v>
       </c>
@@ -1279,28 +1719,49 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
         <v>46009</v>
       </c>
-      <c r="P16">
-        <v>0.5</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
       <c r="R16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>46009</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>48642</v>
       </c>
@@ -1311,31 +1772,66 @@
         <v>0.5</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="O17">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17">
         <v>48642</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
       <c r="R17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>48642</v>
+      </c>
+      <c r="AD17">
+        <v>0.5</v>
+      </c>
+      <c r="AE17">
+        <v>4</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>69129</v>
       </c>
@@ -1346,28 +1842,71 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f>COUNTIF(D$3:D$102,$K18)</f>
+        <v>27</v>
+      </c>
+      <c r="M18" s="3">
+        <f>COUNTIF(F$3:F$102,$K18)</f>
+        <v>37</v>
+      </c>
+      <c r="Q18">
         <v>69129</v>
       </c>
-      <c r="P18">
-        <v>0.5</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
       <c r="R18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <f>COUNTIF(D$3:D$102,$W18)</f>
+        <v>27</v>
+      </c>
+      <c r="Y18" s="3">
+        <f>COUNTIF(S$3:S$102,$W18)</f>
+        <v>33</v>
+      </c>
+      <c r="AC18">
+        <v>69129</v>
+      </c>
+      <c r="AD18">
+        <v>0.5</v>
+      </c>
+      <c r="AE18">
+        <v>5</v>
+      </c>
+      <c r="AF18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>82865</v>
       </c>
@@ -1381,25 +1920,68 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <f>COUNTIF(D$3:D$102,$K19)</f>
+        <v>73</v>
+      </c>
+      <c r="M19" s="3">
+        <f>COUNTIF(F$3:F$102,$K19)</f>
+        <v>63</v>
+      </c>
+      <c r="Q19">
         <v>82865</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
       <c r="R19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+      <c r="X19" s="3">
+        <f>COUNTIF(D$3:D$102,$W19)</f>
+        <v>73</v>
+      </c>
+      <c r="Y19" s="3">
+        <f>COUNTIF(S$3:S$102,$W19)</f>
+        <v>67</v>
+      </c>
+      <c r="AC19">
+        <v>82865</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>3</v>
+      </c>
+      <c r="AF19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>91174</v>
       </c>
@@ -1413,28 +1995,52 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
         <v>14</v>
       </c>
-      <c r="O20">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="Q20">
         <v>91174</v>
       </c>
-      <c r="P20">
-        <v>0.5</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
       <c r="R20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>91174</v>
+      </c>
+      <c r="AD20">
+        <v>0.5</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
+      <c r="AF20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>97331</v>
       </c>
@@ -1445,28 +2051,49 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
         <v>97331</v>
       </c>
-      <c r="P21">
-        <v>0.5</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
       <c r="R21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="AC21">
+        <v>97331</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>5</v>
+      </c>
+      <c r="AF21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>114029</v>
       </c>
@@ -1480,28 +2107,49 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
         <v>9</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>114029</v>
       </c>
-      <c r="P22">
-        <v>0.5</v>
-      </c>
-      <c r="Q22">
-        <v>4</v>
-      </c>
       <c r="R22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="AC22">
+        <v>114029</v>
+      </c>
+      <c r="AD22">
+        <v>0.5</v>
+      </c>
+      <c r="AE22">
+        <v>3</v>
+      </c>
+      <c r="AF22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>117077</v>
       </c>
@@ -1515,28 +2163,49 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
         <v>7</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>117077</v>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
       <c r="R23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="AC23">
+        <v>117077</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>5</v>
+      </c>
+      <c r="AF23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>119503</v>
       </c>
@@ -1547,28 +2216,49 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
         <v>119503</v>
       </c>
-      <c r="P24">
-        <v>0.5</v>
-      </c>
-      <c r="Q24">
-        <v>4</v>
-      </c>
       <c r="R24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="AC24">
+        <v>119503</v>
+      </c>
+      <c r="AD24">
+        <v>0.5</v>
+      </c>
+      <c r="AE24">
+        <v>4</v>
+      </c>
+      <c r="AF24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>121053</v>
       </c>
@@ -1582,28 +2272,49 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
         <v>7</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>121053</v>
       </c>
-      <c r="P25">
-        <v>0.5</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
       <c r="R25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="AC25">
+        <v>121053</v>
+      </c>
+      <c r="AD25">
+        <v>0.5</v>
+      </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>124225</v>
       </c>
@@ -1617,28 +2328,49 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
         <v>8</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>124225</v>
       </c>
-      <c r="P26">
-        <v>0.5</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
       <c r="R26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+      <c r="AC26">
+        <v>124225</v>
+      </c>
+      <c r="AD26">
+        <v>0.5</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AF26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>124777</v>
       </c>
@@ -1652,25 +2384,46 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
         <v>124777</v>
       </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
       <c r="R27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="AC27">
+        <v>124777</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125803</v>
       </c>
@@ -1681,28 +2434,49 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
         <v>125803</v>
       </c>
-      <c r="P28">
-        <v>0.5</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
-      </c>
       <c r="R28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="AC28">
+        <v>125803</v>
+      </c>
+      <c r="AD28">
+        <v>0.5</v>
+      </c>
+      <c r="AE28">
+        <v>5</v>
+      </c>
+      <c r="AF28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>127114</v>
       </c>
@@ -1716,28 +2490,49 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
         <v>15</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>127114</v>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>4</v>
-      </c>
       <c r="R29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="AC29">
+        <v>127114</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>4</v>
+      </c>
+      <c r="AF29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>128113</v>
       </c>
@@ -1748,31 +2543,52 @@
         <v>0.5</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
         <v>15</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>128113</v>
       </c>
-      <c r="P30">
-        <v>0.5</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
       <c r="R30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>128113</v>
+      </c>
+      <c r="AD30">
+        <v>0.5</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
+      </c>
+      <c r="AF30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>133939</v>
       </c>
@@ -1786,25 +2602,46 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
         <v>133939</v>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
       <c r="R31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>133939</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>3</v>
+      </c>
+      <c r="AF31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>136942</v>
       </c>
@@ -1818,25 +2655,46 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="O32">
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
         <v>136942</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>5</v>
-      </c>
       <c r="R32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>136942</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>4</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>149245</v>
       </c>
@@ -1850,28 +2708,49 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
         <v>16</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>149245</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>3</v>
-      </c>
       <c r="R33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="AC33">
+        <v>149245</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>3</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>153041</v>
       </c>
@@ -1882,31 +2761,52 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
         <v>8</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>153041</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
       <c r="R34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="AC34">
+        <v>153041</v>
+      </c>
+      <c r="AD34">
+        <v>0.5</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>155530</v>
       </c>
@@ -1917,28 +2817,49 @@
         <v>0.5</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
         <v>155530</v>
       </c>
-      <c r="P35">
-        <v>0.5</v>
-      </c>
-      <c r="Q35">
-        <v>4</v>
-      </c>
       <c r="R35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <v>155530</v>
+      </c>
+      <c r="AD35">
+        <v>0.5</v>
+      </c>
+      <c r="AE35">
+        <v>4</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>157689</v>
       </c>
@@ -1952,25 +2873,46 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
         <v>157689</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
       <c r="R36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="AC36">
+        <v>157689</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>158262</v>
       </c>
@@ -1987,22 +2929,43 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
         <v>158262</v>
       </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
       <c r="R37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <v>158262</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>163897</v>
       </c>
@@ -2013,28 +2976,49 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
         <v>163897</v>
       </c>
-      <c r="P38">
-        <v>0.5</v>
-      </c>
-      <c r="Q38">
-        <v>4</v>
-      </c>
       <c r="R38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="AC38">
+        <v>163897</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>4</v>
+      </c>
+      <c r="AF38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>178349</v>
       </c>
@@ -2045,28 +3029,49 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
         <v>178349</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>3</v>
-      </c>
       <c r="R39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>178349</v>
+      </c>
+      <c r="AD39">
+        <v>0.5</v>
+      </c>
+      <c r="AE39">
+        <v>4</v>
+      </c>
+      <c r="AF39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>181025</v>
       </c>
@@ -2077,28 +3082,49 @@
         <v>0.5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
         <v>181025</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
       <c r="R40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>4</v>
+      </c>
+      <c r="AC40">
+        <v>181025</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>181745</v>
       </c>
@@ -2109,28 +3135,49 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
         <v>181745</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>5</v>
-      </c>
       <c r="R41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>181745</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>5</v>
+      </c>
+      <c r="AF41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>184153</v>
       </c>
@@ -2144,28 +3191,49 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
         <v>17</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>184153</v>
       </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>5</v>
-      </c>
       <c r="R42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="AC42">
+        <v>184153</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>4</v>
+      </c>
+      <c r="AF42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>185062</v>
       </c>
@@ -2179,25 +3247,46 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
         <v>185062</v>
       </c>
-      <c r="P43">
-        <v>0.5</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
       <c r="R43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <v>185062</v>
+      </c>
+      <c r="AD43">
+        <v>0.5</v>
+      </c>
+      <c r="AE43">
+        <v>4</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>188695</v>
       </c>
@@ -2211,28 +3300,49 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
         <v>7</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>188695</v>
       </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3</v>
-      </c>
       <c r="R44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>3</v>
+      </c>
+      <c r="AC44">
+        <v>188695</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>3</v>
+      </c>
+      <c r="AF44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>189814</v>
       </c>
@@ -2243,31 +3353,52 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
         <v>18</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>189814</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>3</v>
-      </c>
       <c r="R45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>5</v>
+      </c>
+      <c r="AC45">
+        <v>189814</v>
+      </c>
+      <c r="AD45">
+        <v>0.5</v>
+      </c>
+      <c r="AE45">
+        <v>4</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>199450</v>
       </c>
@@ -2281,28 +3412,49 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46" t="s">
         <v>19</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>199450</v>
       </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>5</v>
-      </c>
       <c r="R46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>5</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+      <c r="AC46">
+        <v>199450</v>
+      </c>
+      <c r="AD46">
+        <v>0.5</v>
+      </c>
+      <c r="AE46">
+        <v>5</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>201367</v>
       </c>
@@ -2319,25 +3471,46 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>4</v>
-      </c>
-      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
         <v>20</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>201367</v>
       </c>
-      <c r="P47">
-        <v>0.5</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
       <c r="R47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="AC47">
+        <v>201367</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>204070</v>
       </c>
@@ -2348,28 +3521,49 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F48">
-        <v>5</v>
-      </c>
-      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="Q48">
         <v>204070</v>
       </c>
-      <c r="P48">
-        <v>0.5</v>
-      </c>
-      <c r="Q48">
-        <v>3</v>
-      </c>
       <c r="R48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>5</v>
+      </c>
+      <c r="AC48">
+        <v>204070</v>
+      </c>
+      <c r="AD48">
+        <v>0.5</v>
+      </c>
+      <c r="AE48">
+        <v>3</v>
+      </c>
+      <c r="AF48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>206341</v>
       </c>
@@ -2380,28 +3574,49 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
         <v>206341</v>
       </c>
-      <c r="P49">
-        <v>0.5</v>
-      </c>
-      <c r="Q49">
-        <v>4</v>
-      </c>
       <c r="R49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>206341</v>
+      </c>
+      <c r="AD49">
+        <v>0.5</v>
+      </c>
+      <c r="AE49">
+        <v>5</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>209345</v>
       </c>
@@ -2412,31 +3627,52 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
         <v>8</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>209345</v>
       </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>5</v>
-      </c>
       <c r="R50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>5</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <v>209345</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>5</v>
+      </c>
+      <c r="AF50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>214221</v>
       </c>
@@ -2450,25 +3686,46 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="Q51">
         <v>214221</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>5</v>
-      </c>
       <c r="R51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>5</v>
+      </c>
+      <c r="U51">
+        <v>5</v>
+      </c>
+      <c r="AC51">
+        <v>214221</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>4</v>
+      </c>
+      <c r="AF51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>218153</v>
       </c>
@@ -2482,28 +3739,49 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
         <v>21</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <v>218153</v>
       </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>4</v>
-      </c>
       <c r="R52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>4</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="AC52">
+        <v>218153</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>5</v>
+      </c>
+      <c r="AF52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>220513</v>
       </c>
@@ -2520,25 +3798,46 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
         <v>22</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>220513</v>
       </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
       <c r="R53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="AC53">
+        <v>220513</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AF53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>224401</v>
       </c>
@@ -2552,28 +3851,49 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>5</v>
-      </c>
-      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54" t="s">
         <v>7</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>224401</v>
       </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>3</v>
-      </c>
       <c r="R54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>5</v>
+      </c>
+      <c r="AC54">
+        <v>224401</v>
+      </c>
+      <c r="AD54">
+        <v>0.5</v>
+      </c>
+      <c r="AE54">
+        <v>3</v>
+      </c>
+      <c r="AF54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>232221</v>
       </c>
@@ -2584,31 +3904,52 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
         <v>23</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>232221</v>
       </c>
-      <c r="P55">
-        <v>0.5</v>
-      </c>
-      <c r="Q55">
-        <v>5</v>
-      </c>
       <c r="R55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>232221</v>
+      </c>
+      <c r="AD55">
+        <v>0.5</v>
+      </c>
+      <c r="AE55">
+        <v>5</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>245097</v>
       </c>
@@ -2619,31 +3960,52 @@
         <v>0.5</v>
       </c>
       <c r="D56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
         <v>24</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>245097</v>
       </c>
-      <c r="P56">
-        <v>0.5</v>
-      </c>
-      <c r="Q56">
-        <v>3</v>
-      </c>
       <c r="R56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>245097</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>2</v>
+      </c>
+      <c r="AF56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>249433</v>
       </c>
@@ -2654,31 +4016,52 @@
         <v>0.5</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
         <v>7</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>249433</v>
       </c>
-      <c r="P57">
-        <v>0.5</v>
-      </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
       <c r="R57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="AC57">
+        <v>249433</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>250187</v>
       </c>
@@ -2689,31 +4072,52 @@
         <v>0.5</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>5</v>
-      </c>
-      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>250187</v>
       </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>5</v>
-      </c>
       <c r="R58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>5</v>
+      </c>
+      <c r="U58">
+        <v>5</v>
+      </c>
+      <c r="AC58">
+        <v>250187</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>5</v>
+      </c>
+      <c r="AF58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>253623</v>
       </c>
@@ -2724,31 +4128,52 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>5</v>
-      </c>
-      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59" t="s">
         <v>26</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>253623</v>
       </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
       <c r="R59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>5</v>
+      </c>
+      <c r="AC59">
+        <v>253623</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>262353</v>
       </c>
@@ -2759,31 +4184,52 @@
         <v>0.5</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F60">
-        <v>4</v>
-      </c>
-      <c r="G60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60" t="s">
         <v>27</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>262353</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>5</v>
-      </c>
       <c r="R60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5</v>
+      </c>
+      <c r="U60">
+        <v>4</v>
+      </c>
+      <c r="AC60">
+        <v>262353</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>5</v>
+      </c>
+      <c r="AF60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>263265</v>
       </c>
@@ -2794,28 +4240,49 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="Q61">
         <v>263265</v>
       </c>
-      <c r="P61">
-        <v>0.5</v>
-      </c>
-      <c r="Q61">
-        <v>3</v>
-      </c>
       <c r="R61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="AC61">
+        <v>263265</v>
+      </c>
+      <c r="AD61">
+        <v>0.5</v>
+      </c>
+      <c r="AE61">
+        <v>4</v>
+      </c>
+      <c r="AF61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>272563</v>
       </c>
@@ -2826,31 +4293,52 @@
         <v>0.5</v>
       </c>
       <c r="D62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
         <v>23</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>272563</v>
       </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>5</v>
-      </c>
       <c r="R62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>5</v>
+      </c>
+      <c r="U62">
+        <v>3</v>
+      </c>
+      <c r="AC62">
+        <v>272563</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>5</v>
+      </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>277686</v>
       </c>
@@ -2861,31 +4349,52 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F63">
-        <v>5</v>
-      </c>
-      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63" t="s">
         <v>28</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>277686</v>
       </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>2</v>
-      </c>
       <c r="R63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>5</v>
+      </c>
+      <c r="AC63">
+        <v>277686</v>
+      </c>
+      <c r="AD63">
+        <v>0.5</v>
+      </c>
+      <c r="AE63">
+        <v>2</v>
+      </c>
+      <c r="AF63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>284121</v>
       </c>
@@ -2896,31 +4405,52 @@
         <v>0.5</v>
       </c>
       <c r="D64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
         <v>29</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <v>284121</v>
       </c>
-      <c r="P64">
-        <v>0.5</v>
-      </c>
-      <c r="Q64">
-        <v>4</v>
-      </c>
       <c r="R64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>4</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="AC64">
+        <v>284121</v>
+      </c>
+      <c r="AD64">
+        <v>0.5</v>
+      </c>
+      <c r="AE64">
+        <v>3</v>
+      </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>296174</v>
       </c>
@@ -2931,28 +4461,49 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>4</v>
-      </c>
-      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="Q65">
         <v>296174</v>
       </c>
-      <c r="P65">
-        <v>0.5</v>
-      </c>
-      <c r="Q65">
-        <v>2</v>
-      </c>
       <c r="R65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
+        <v>4</v>
+      </c>
+      <c r="AC65">
+        <v>296174</v>
+      </c>
+      <c r="AD65">
+        <v>0.5</v>
+      </c>
+      <c r="AE65">
+        <v>2</v>
+      </c>
+      <c r="AF65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>296669</v>
       </c>
@@ -2963,31 +4514,52 @@
         <v>0.5</v>
       </c>
       <c r="D66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
         <v>29</v>
       </c>
-      <c r="O66">
+      <c r="Q66">
         <v>296669</v>
       </c>
-      <c r="P66">
-        <v>0.5</v>
-      </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
       <c r="R66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="AC66">
+        <v>296669</v>
+      </c>
+      <c r="AD66">
+        <v>0.5</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AF66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>296686</v>
       </c>
@@ -2998,28 +4570,49 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F67">
-        <v>3</v>
-      </c>
-      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
         <v>296686</v>
       </c>
-      <c r="P67">
-        <v>0.5</v>
-      </c>
-      <c r="Q67">
-        <v>3</v>
-      </c>
       <c r="R67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="AC67">
+        <v>296686</v>
+      </c>
+      <c r="AD67">
+        <v>0.5</v>
+      </c>
+      <c r="AE67">
+        <v>3</v>
+      </c>
+      <c r="AF67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>305259</v>
       </c>
@@ -3030,28 +4623,49 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>3</v>
-      </c>
-      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="Q68">
         <v>305259</v>
       </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>5</v>
-      </c>
       <c r="R68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>5</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="AC68">
+        <v>305259</v>
+      </c>
+      <c r="AD68">
+        <v>0.5</v>
+      </c>
+      <c r="AE68">
+        <v>5</v>
+      </c>
+      <c r="AF68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>305929</v>
       </c>
@@ -3062,28 +4676,49 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F69">
-        <v>3</v>
-      </c>
-      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="Q69">
         <v>305929</v>
       </c>
-      <c r="P69">
-        <v>0.5</v>
-      </c>
-      <c r="Q69">
-        <v>4</v>
-      </c>
       <c r="R69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="AC69">
+        <v>305929</v>
+      </c>
+      <c r="AD69">
+        <v>0.5</v>
+      </c>
+      <c r="AE69">
+        <v>4</v>
+      </c>
+      <c r="AF69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>314570</v>
       </c>
@@ -3097,25 +4732,46 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>4</v>
-      </c>
-      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="Q70">
         <v>314570</v>
       </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>4</v>
-      </c>
       <c r="R70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>4</v>
+      </c>
+      <c r="U70">
+        <v>4</v>
+      </c>
+      <c r="AC70">
+        <v>314570</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>3</v>
+      </c>
+      <c r="AF70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>335459</v>
       </c>
@@ -3126,28 +4782,49 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>2</v>
-      </c>
-      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
         <v>335459</v>
       </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>4</v>
-      </c>
       <c r="R71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="AC71">
+        <v>335459</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>4</v>
+      </c>
+      <c r="AF71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>339765</v>
       </c>
@@ -3161,28 +4838,49 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>4</v>
-      </c>
-      <c r="G72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
         <v>21</v>
       </c>
-      <c r="O72">
+      <c r="Q72">
         <v>339765</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>5</v>
-      </c>
       <c r="R72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="AC72">
+        <v>339765</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>5</v>
+      </c>
+      <c r="AF72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>343515</v>
       </c>
@@ -3196,25 +4894,46 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>4</v>
-      </c>
-      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="Q73">
         <v>343515</v>
       </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>4</v>
-      </c>
       <c r="R73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>4</v>
+      </c>
+      <c r="U73">
+        <v>4</v>
+      </c>
+      <c r="AC73">
+        <v>343515</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>4</v>
+      </c>
+      <c r="AF73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>346353</v>
       </c>
@@ -3225,28 +4944,49 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F74">
-        <v>2</v>
-      </c>
-      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="Q74">
         <v>346353</v>
       </c>
-      <c r="P74">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>5</v>
-      </c>
       <c r="R74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>5</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="AC74">
+        <v>346353</v>
+      </c>
+      <c r="AD74">
+        <v>1</v>
+      </c>
+      <c r="AE74">
+        <v>5</v>
+      </c>
+      <c r="AF74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>359643</v>
       </c>
@@ -3260,25 +5000,46 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>5</v>
-      </c>
-      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="Q75">
         <v>359643</v>
       </c>
-      <c r="P75">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>4</v>
-      </c>
       <c r="R75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>4</v>
+      </c>
+      <c r="U75">
+        <v>5</v>
+      </c>
+      <c r="AC75">
+        <v>359643</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>4</v>
+      </c>
+      <c r="AF75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>366238</v>
       </c>
@@ -3292,25 +5053,46 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>5</v>
-      </c>
-      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="Q76">
         <v>366238</v>
       </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>2</v>
-      </c>
       <c r="R76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>2</v>
+      </c>
+      <c r="U76">
+        <v>4</v>
+      </c>
+      <c r="AC76">
+        <v>366238</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+      <c r="AE76">
+        <v>2</v>
+      </c>
+      <c r="AF76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>369143</v>
       </c>
@@ -3324,28 +5106,49 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>3</v>
-      </c>
-      <c r="G77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
         <v>30</v>
       </c>
-      <c r="O77">
+      <c r="Q77">
         <v>369143</v>
       </c>
-      <c r="P77">
-        <v>0.5</v>
-      </c>
-      <c r="Q77">
-        <v>5</v>
-      </c>
       <c r="R77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>5</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>369143</v>
+      </c>
+      <c r="AD77">
+        <v>0.5</v>
+      </c>
+      <c r="AE77">
+        <v>5</v>
+      </c>
+      <c r="AF77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>375611</v>
       </c>
@@ -3356,28 +5159,49 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="Q78">
         <v>375611</v>
       </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>5</v>
-      </c>
       <c r="R78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>5</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="AC78">
+        <v>375611</v>
+      </c>
+      <c r="AD78">
+        <v>0.5</v>
+      </c>
+      <c r="AE78">
+        <v>5</v>
+      </c>
+      <c r="AF78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>375915</v>
       </c>
@@ -3388,28 +5212,49 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
-      <c r="O79">
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
         <v>375915</v>
       </c>
-      <c r="P79">
-        <v>0.5</v>
-      </c>
-      <c r="Q79">
-        <v>1</v>
-      </c>
       <c r="R79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="AC79">
+        <v>375915</v>
+      </c>
+      <c r="AD79">
+        <v>0.5</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>379179</v>
       </c>
@@ -3423,28 +5268,49 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>5</v>
-      </c>
-      <c r="G80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80" t="s">
         <v>7</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <v>379179</v>
       </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>3</v>
-      </c>
       <c r="R80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>3</v>
+      </c>
+      <c r="U80">
+        <v>3</v>
+      </c>
+      <c r="AC80">
+        <v>379179</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+      <c r="AE80">
+        <v>3</v>
+      </c>
+      <c r="AF80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>380106</v>
       </c>
@@ -3458,25 +5324,46 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>4</v>
-      </c>
-      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="Q81">
         <v>380106</v>
       </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>4</v>
-      </c>
       <c r="R81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>4</v>
+      </c>
+      <c r="U81">
+        <v>5</v>
+      </c>
+      <c r="AC81">
+        <v>380106</v>
+      </c>
+      <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AE81">
+        <v>4</v>
+      </c>
+      <c r="AF81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>393315</v>
       </c>
@@ -3487,28 +5374,49 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>4</v>
-      </c>
-      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="Q82">
         <v>393315</v>
       </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
       <c r="R82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>4</v>
+      </c>
+      <c r="AC82">
+        <v>393315</v>
+      </c>
+      <c r="AD82">
+        <v>0.5</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
+      </c>
+      <c r="AF82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>398398</v>
       </c>
@@ -3519,31 +5427,52 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
         <v>31</v>
       </c>
-      <c r="O83">
+      <c r="Q83">
         <v>398398</v>
       </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>2</v>
-      </c>
       <c r="R83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>2</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>398398</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>3</v>
+      </c>
+      <c r="AF83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>402610</v>
       </c>
@@ -3554,28 +5483,49 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>2</v>
-      </c>
-      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="Q84">
         <v>402610</v>
       </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>5</v>
-      </c>
       <c r="R84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>5</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="AC84">
+        <v>402610</v>
+      </c>
+      <c r="AD84">
+        <v>0.5</v>
+      </c>
+      <c r="AE84">
+        <v>5</v>
+      </c>
+      <c r="AF84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>407854</v>
       </c>
@@ -3586,31 +5536,52 @@
         <v>0.5</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>5</v>
-      </c>
-      <c r="G85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85" t="s">
         <v>25</v>
       </c>
-      <c r="O85">
+      <c r="Q85">
         <v>407854</v>
       </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>4</v>
-      </c>
       <c r="R85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>4</v>
+      </c>
+      <c r="U85">
+        <v>5</v>
+      </c>
+      <c r="AC85">
+        <v>407854</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+      <c r="AE85">
+        <v>4</v>
+      </c>
+      <c r="AF85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>411783</v>
       </c>
@@ -3624,28 +5595,49 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>3</v>
-      </c>
-      <c r="G86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
         <v>32</v>
       </c>
-      <c r="O86">
+      <c r="Q86">
         <v>411783</v>
       </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>3</v>
-      </c>
       <c r="R86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="AC86">
+        <v>411783</v>
+      </c>
+      <c r="AD86">
+        <v>1</v>
+      </c>
+      <c r="AE86">
+        <v>3</v>
+      </c>
+      <c r="AF86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>415862</v>
       </c>
@@ -3659,25 +5651,46 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>5</v>
-      </c>
-      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="Q87">
         <v>415862</v>
       </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>3</v>
-      </c>
       <c r="R87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <v>5</v>
+      </c>
+      <c r="AC87">
+        <v>415862</v>
+      </c>
+      <c r="AD87">
+        <v>1</v>
+      </c>
+      <c r="AE87">
+        <v>3</v>
+      </c>
+      <c r="AF87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>418957</v>
       </c>
@@ -3688,31 +5701,52 @@
         <v>0.5</v>
       </c>
       <c r="D88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F88">
-        <v>3</v>
-      </c>
-      <c r="G88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s">
         <v>21</v>
       </c>
-      <c r="O88">
+      <c r="Q88">
         <v>418957</v>
       </c>
-      <c r="P88">
-        <v>0.5</v>
-      </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
       <c r="R88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+      <c r="AC88">
+        <v>418957</v>
+      </c>
+      <c r="AD88">
+        <v>0.5</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
+      </c>
+      <c r="AF88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>422517</v>
       </c>
@@ -3723,28 +5757,49 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>3</v>
-      </c>
-      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="Q89">
         <v>422517</v>
       </c>
-      <c r="P89">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>4</v>
-      </c>
       <c r="R89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="AC89">
+        <v>422517</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+      <c r="AE89">
+        <v>4</v>
+      </c>
+      <c r="AF89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>428837</v>
       </c>
@@ -3758,28 +5813,49 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>4</v>
-      </c>
-      <c r="G90" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90" t="s">
         <v>7</v>
       </c>
-      <c r="O90">
+      <c r="Q90">
         <v>428837</v>
       </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>2</v>
-      </c>
       <c r="R90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
+        <v>4</v>
+      </c>
+      <c r="AC90">
+        <v>428837</v>
+      </c>
+      <c r="AD90">
+        <v>1</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
+      </c>
+      <c r="AF90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>431257</v>
       </c>
@@ -3793,25 +5869,46 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>5</v>
-      </c>
-      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="Q91">
         <v>431257</v>
       </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>3</v>
-      </c>
       <c r="R91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>5</v>
+      </c>
+      <c r="AC91">
+        <v>431257</v>
+      </c>
+      <c r="AD91">
+        <v>1</v>
+      </c>
+      <c r="AE91">
+        <v>4</v>
+      </c>
+      <c r="AF91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>444805</v>
       </c>
@@ -3822,28 +5919,49 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>2</v>
-      </c>
-      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="Q92">
         <v>444805</v>
       </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>1</v>
-      </c>
       <c r="R92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+      <c r="U92">
+        <v>4</v>
+      </c>
+      <c r="AC92">
+        <v>444805</v>
+      </c>
+      <c r="AD92">
+        <v>1</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
+      </c>
+      <c r="AF92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>447517</v>
       </c>
@@ -3854,31 +5972,52 @@
         <v>0.5</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>3</v>
-      </c>
-      <c r="G93" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93" t="s">
         <v>21</v>
       </c>
-      <c r="O93">
+      <c r="Q93">
         <v>447517</v>
       </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>4</v>
-      </c>
       <c r="R93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>4</v>
+      </c>
+      <c r="U93">
+        <v>4</v>
+      </c>
+      <c r="AC93">
+        <v>447517</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AE93">
+        <v>4</v>
+      </c>
+      <c r="AF93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>454359</v>
       </c>
@@ -3889,28 +6028,49 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>4</v>
-      </c>
-      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="Q94">
         <v>454359</v>
       </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>1</v>
-      </c>
       <c r="R94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <v>4</v>
+      </c>
+      <c r="AC94">
+        <v>454359</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>1</v>
+      </c>
+      <c r="AF94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>456226</v>
       </c>
@@ -3921,31 +6081,52 @@
         <v>0.5</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>3</v>
-      </c>
-      <c r="G95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s">
         <v>21</v>
       </c>
-      <c r="O95">
+      <c r="Q95">
         <v>456226</v>
       </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>5</v>
-      </c>
       <c r="R95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>5</v>
+      </c>
+      <c r="U95">
+        <v>4</v>
+      </c>
+      <c r="AC95">
+        <v>456226</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AE95">
+        <v>5</v>
+      </c>
+      <c r="AF95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>457893</v>
       </c>
@@ -3956,28 +6137,49 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>5</v>
-      </c>
-      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="Q96">
         <v>457893</v>
       </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-      <c r="Q96">
-        <v>3</v>
-      </c>
       <c r="R96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>5</v>
+      </c>
+      <c r="AC96">
+        <v>457893</v>
+      </c>
+      <c r="AD96">
+        <v>1</v>
+      </c>
+      <c r="AE96">
+        <v>3</v>
+      </c>
+      <c r="AF96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>459962</v>
       </c>
@@ -3988,31 +6190,52 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>4</v>
-      </c>
-      <c r="G97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97" t="s">
         <v>7</v>
       </c>
-      <c r="O97">
+      <c r="Q97">
         <v>459962</v>
       </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>2</v>
-      </c>
       <c r="R97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
+        <v>4</v>
+      </c>
+      <c r="AC97">
+        <v>459962</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
+      <c r="AF97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>466393</v>
       </c>
@@ -4023,31 +6246,52 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F98">
-        <v>4</v>
-      </c>
-      <c r="G98" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98" t="s">
         <v>33</v>
       </c>
-      <c r="O98">
+      <c r="Q98">
         <v>466393</v>
       </c>
-      <c r="P98">
-        <v>0.5</v>
-      </c>
-      <c r="Q98">
-        <v>5</v>
-      </c>
       <c r="R98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>5</v>
+      </c>
+      <c r="U98">
+        <v>5</v>
+      </c>
+      <c r="AC98">
+        <v>466393</v>
+      </c>
+      <c r="AD98">
+        <v>0.5</v>
+      </c>
+      <c r="AE98">
+        <v>5</v>
+      </c>
+      <c r="AF98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>466945</v>
       </c>
@@ -4058,31 +6302,52 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F99">
-        <v>5</v>
-      </c>
-      <c r="G99" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
         <v>34</v>
       </c>
-      <c r="O99">
+      <c r="Q99">
         <v>466945</v>
       </c>
-      <c r="P99">
-        <v>0.5</v>
-      </c>
-      <c r="Q99">
-        <v>1</v>
-      </c>
       <c r="R99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="AC99">
+        <v>466945</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
+      </c>
+      <c r="AF99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>476899</v>
       </c>
@@ -4093,31 +6358,52 @@
         <v>0.5</v>
       </c>
       <c r="D100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
         <v>7</v>
       </c>
-      <c r="O100">
+      <c r="Q100">
         <v>476899</v>
       </c>
-      <c r="P100">
-        <v>0.5</v>
-      </c>
-      <c r="Q100">
-        <v>1</v>
-      </c>
       <c r="R100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="AC100">
+        <v>476899</v>
+      </c>
+      <c r="AD100">
+        <v>0.5</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
+      </c>
+      <c r="AF100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>501217</v>
       </c>
@@ -4128,31 +6414,52 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>2</v>
-      </c>
-      <c r="G101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
         <v>35</v>
       </c>
-      <c r="O101">
+      <c r="Q101">
         <v>501217</v>
       </c>
-      <c r="P101">
-        <v>1</v>
-      </c>
-      <c r="Q101">
-        <v>1</v>
-      </c>
       <c r="R101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="U101">
+        <v>4</v>
+      </c>
+      <c r="AC101">
+        <v>501217</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
+      </c>
+      <c r="AF101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>516165</v>
       </c>
@@ -4163,33 +6470,55 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F102">
-        <v>2</v>
-      </c>
-      <c r="G102" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102" t="s">
         <v>7</v>
       </c>
-      <c r="O102">
+      <c r="Q102">
         <v>516165</v>
       </c>
-      <c r="P102">
-        <v>0.5</v>
-      </c>
-      <c r="Q102">
-        <v>2</v>
-      </c>
       <c r="R102">
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
+        <v>3</v>
+      </c>
+      <c r="AC102">
+        <v>516165</v>
+      </c>
+      <c r="AD102">
+        <v>0.5</v>
+      </c>
+      <c r="AE102">
+        <v>2</v>
+      </c>
+      <c r="AF102">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="P1:R1"/>
+  <mergeCells count="2">
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4200,7 +6529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E47D7DA-951D-4AA0-9523-6B12D149129F}">
   <dimension ref="B1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
